--- a/data/trans_orig/P14A12-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14A12-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{32AEBE5D-E1FC-40A0-8766-E569B7A492BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AAD32EB2-D7FF-4857-8693-F669B97CE3F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D9550D81-00BB-46C8-98E5-1568EF5E255B}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{71EF0A24-74CE-488B-9FCA-94763BED2A9D}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="122">
   <si>
     <t>Población que recibe medicación o terapia por angina de pecho en 2012 (Tasa respuesta: 0,68%)</t>
   </si>
@@ -141,7 +141,7 @@
     <t>92,98%</t>
   </si>
   <si>
-    <t>64,02%</t>
+    <t>62,78%</t>
   </si>
   <si>
     <t>26,42%</t>
@@ -156,7 +156,7 @@
     <t>7,02%</t>
   </si>
   <si>
-    <t>35,98%</t>
+    <t>37,22%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -171,7 +171,7 @@
     <t>84,25%</t>
   </si>
   <si>
-    <t>36,2%</t>
+    <t>37,82%</t>
   </si>
   <si>
     <t>18,56%</t>
@@ -183,7 +183,7 @@
     <t>15,75%</t>
   </si>
   <si>
-    <t>63,8%</t>
+    <t>62,18%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -201,19 +201,25 @@
     <t>80,3%</t>
   </si>
   <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>47,68%</t>
+  </si>
+  <si>
+    <t>65,0%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
     <t>19,7%</t>
   </si>
   <si>
-    <t>47,68%</t>
-  </si>
-  <si>
-    <t>65,0%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
+    <t>79,71%</t>
   </si>
   <si>
     <t>52,32%</t>
@@ -222,10 +228,10 @@
     <t>35,0%</t>
   </si>
   <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>69,34%</t>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>69,66%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -240,7 +246,7 @@
     <t>86,73%</t>
   </si>
   <si>
-    <t>47,24%</t>
+    <t>47,23%</t>
   </si>
   <si>
     <t>36,25%</t>
@@ -252,13 +258,13 @@
     <t>13,27%</t>
   </si>
   <si>
-    <t>52,76%</t>
+    <t>52,77%</t>
   </si>
   <si>
     <t>91,13%</t>
   </si>
   <si>
-    <t>71,25%</t>
+    <t>71,58%</t>
   </si>
   <si>
     <t>77,37%</t>
@@ -273,16 +279,16 @@
     <t>83,99%</t>
   </si>
   <si>
-    <t>69,7%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
+    <t>70,3%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
   </si>
   <si>
     <t>8,87%</t>
   </si>
   <si>
-    <t>28,75%</t>
+    <t>28,42%</t>
   </si>
   <si>
     <t>22,63%</t>
@@ -297,10 +303,10 @@
     <t>16,01%</t>
   </si>
   <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -808,7 +814,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E743C7E3-C07A-4162-899D-919770563C88}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E1508A8-BD30-4757-B943-96EEC113C9F6}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1883,13 +1889,13 @@
         <v>1006</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="H23" s="7">
         <v>2</v>
@@ -1898,7 +1904,7 @@
         <v>2360</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>18</v>
@@ -1913,13 +1919,13 @@
         <v>3366</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -1975,7 +1981,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -1990,7 +1996,7 @@
         <v>14</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>16</v>
@@ -2002,7 +2008,7 @@
         <v>3259</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>18</v>
@@ -2017,10 +2023,10 @@
         <v>7585</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>14</v>
@@ -2044,7 +2050,7 @@
         <v>21</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -2053,7 +2059,7 @@
         <v>1160</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>18</v>
@@ -2068,13 +2074,13 @@
         <v>1160</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2142,10 +2148,10 @@
         <v>20931</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>14</v>
@@ -2157,13 +2163,13 @@
         <v>19170</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M28" s="7">
         <v>37</v>
@@ -2172,13 +2178,13 @@
         <v>40101</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2193,13 +2199,13 @@
         <v>2037</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H29" s="7">
         <v>5</v>
@@ -2208,13 +2214,13 @@
         <v>5608</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M29" s="7">
         <v>7</v>
@@ -2223,13 +2229,13 @@
         <v>7645</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2285,7 +2291,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2309,7 +2315,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C7858CF-D4F1-47DA-9CE4-FC605327AE8F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{881B6B17-EAB5-4949-A3FF-8594F3B7F9A3}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2326,7 +2332,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2591,7 +2597,7 @@
         <v>14</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>16</v>
@@ -2621,7 +2627,7 @@
         <v>14</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>16</v>
@@ -2645,7 +2651,7 @@
         <v>21</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2675,7 +2681,7 @@
         <v>21</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2895,7 +2901,7 @@
         <v>14</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>16</v>
@@ -2925,7 +2931,7 @@
         <v>14</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>16</v>
@@ -2949,7 +2955,7 @@
         <v>21</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -2979,7 +2985,7 @@
         <v>21</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3196,7 +3202,7 @@
         <v>974</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>18</v>
@@ -3224,7 +3230,7 @@
         <v>974</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>18</v>
@@ -3245,7 +3251,7 @@
         <v>807</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>18</v>
@@ -3273,7 +3279,7 @@
         <v>807</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>18</v>
@@ -3348,7 +3354,7 @@
         <v>14</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>16</v>
@@ -3360,10 +3366,10 @@
         <v>7063</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>14</v>
@@ -3375,10 +3381,10 @@
         <v>12147</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>14</v>
@@ -3402,7 +3408,7 @@
         <v>21</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -3411,13 +3417,13 @@
         <v>1194</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M23" s="7">
         <v>1</v>
@@ -3426,13 +3432,13 @@
         <v>1194</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3488,7 +3494,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3533,7 +3539,7 @@
         <v>14</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>16</v>
@@ -3587,7 +3593,7 @@
         <v>21</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3655,10 +3661,10 @@
         <v>24046</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>14</v>
@@ -3670,10 +3676,10 @@
         <v>16971</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>14</v>
@@ -3685,13 +3691,13 @@
         <v>41018</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3706,13 +3712,13 @@
         <v>2108</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -3721,13 +3727,13 @@
         <v>2212</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M29" s="7">
         <v>4</v>
@@ -3736,13 +3742,13 @@
         <v>4320</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3798,7 +3804,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14A12-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14A12-Provincia-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AAD32EB2-D7FF-4857-8693-F669B97CE3F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9027DC56-85E0-41BA-A221-757DF5735DEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{71EF0A24-74CE-488B-9FCA-94763BED2A9D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{361360A5-AA1C-4DF5-9819-7B0C5F01AC90}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="124">
   <si>
     <t>Población que recibe medicación o terapia por angina de pecho en 2012 (Tasa respuesta: 0,68%)</t>
   </si>
@@ -99,7 +99,7 @@
     <t>77,98%</t>
   </si>
   <si>
-    <t>18,27%</t>
+    <t>18,49%</t>
   </si>
   <si>
     <t>0%</t>
@@ -114,7 +114,7 @@
     <t>22,02%</t>
   </si>
   <si>
-    <t>81,73%</t>
+    <t>81,51%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -135,13 +135,13 @@
     <t>87,33%</t>
   </si>
   <si>
-    <t>45,77%</t>
+    <t>59,02%</t>
   </si>
   <si>
     <t>92,98%</t>
   </si>
   <si>
-    <t>62,78%</t>
+    <t>68,1%</t>
   </si>
   <si>
     <t>26,42%</t>
@@ -150,13 +150,13 @@
     <t>12,67%</t>
   </si>
   <si>
-    <t>54,23%</t>
+    <t>40,98%</t>
   </si>
   <si>
     <t>7,02%</t>
   </si>
   <si>
-    <t>37,22%</t>
+    <t>31,9%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -171,7 +171,7 @@
     <t>84,25%</t>
   </si>
   <si>
-    <t>37,82%</t>
+    <t>20,05%</t>
   </si>
   <si>
     <t>18,56%</t>
@@ -183,7 +183,7 @@
     <t>15,75%</t>
   </si>
   <si>
-    <t>62,18%</t>
+    <t>79,95%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -201,7 +201,7 @@
     <t>80,3%</t>
   </si>
   <si>
-    <t>20,29%</t>
+    <t>20,23%</t>
   </si>
   <si>
     <t>47,68%</t>
@@ -210,16 +210,16 @@
     <t>65,0%</t>
   </si>
   <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
   </si>
   <si>
     <t>19,7%</t>
   </si>
   <si>
-    <t>79,71%</t>
+    <t>79,77%</t>
   </si>
   <si>
     <t>52,32%</t>
@@ -228,10 +228,10 @@
     <t>35,0%</t>
   </si>
   <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>69,66%</t>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>69,15%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -243,10 +243,13 @@
     <t>73,74%</t>
   </si>
   <si>
+    <t>22,31%</t>
+  </si>
+  <si>
     <t>86,73%</t>
   </si>
   <si>
-    <t>47,23%</t>
+    <t>47,61%</t>
   </si>
   <si>
     <t>36,25%</t>
@@ -255,64 +258,67 @@
     <t>26,26%</t>
   </si>
   <si>
+    <t>77,69%</t>
+  </si>
+  <si>
     <t>13,27%</t>
   </si>
   <si>
-    <t>52,77%</t>
+    <t>52,39%</t>
   </si>
   <si>
     <t>91,13%</t>
   </si>
   <si>
-    <t>71,58%</t>
+    <t>74,92%</t>
   </si>
   <si>
     <t>77,37%</t>
   </si>
   <si>
-    <t>54,97%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
+    <t>56,22%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
   </si>
   <si>
     <t>83,99%</t>
   </si>
   <si>
-    <t>70,3%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
+    <t>69,37%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
   </si>
   <si>
     <t>8,87%</t>
   </si>
   <si>
-    <t>28,42%</t>
+    <t>25,08%</t>
   </si>
   <si>
     <t>22,63%</t>
   </si>
   <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>45,03%</t>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>43,78%</t>
   </si>
   <si>
     <t>16,01%</t>
   </si>
   <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población que recibe medicación o terapia por angina de pecho en 2015 (Tasa respuesta: 0,65%)</t>
+    <t>Población que recibe medicación o terapia por angina de pecho en 2016 (Tasa respuesta: 0,65%)</t>
   </si>
   <si>
     <t>69,43%</t>
@@ -336,25 +342,25 @@
     <t>85,54%</t>
   </si>
   <si>
-    <t>30,79%</t>
+    <t>37,34%</t>
   </si>
   <si>
     <t>91,05%</t>
   </si>
   <si>
-    <t>61,84%</t>
+    <t>61,65%</t>
   </si>
   <si>
     <t>14,46%</t>
   </si>
   <si>
-    <t>69,21%</t>
+    <t>62,66%</t>
   </si>
   <si>
     <t>8,95%</t>
   </si>
   <si>
-    <t>38,16%</t>
+    <t>38,35%</t>
   </si>
   <si>
     <t>81,26%</t>
@@ -366,43 +372,43 @@
     <t>91,94%</t>
   </si>
   <si>
-    <t>74,48%</t>
+    <t>66,41%</t>
   </si>
   <si>
     <t>88,47%</t>
   </si>
   <si>
-    <t>61,06%</t>
+    <t>65,11%</t>
   </si>
   <si>
     <t>90,47%</t>
   </si>
   <si>
-    <t>76,48%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
+    <t>75,79%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
   </si>
   <si>
     <t>8,06%</t>
   </si>
   <si>
-    <t>25,52%</t>
+    <t>33,59%</t>
   </si>
   <si>
     <t>11,53%</t>
   </si>
   <si>
-    <t>38,94%</t>
+    <t>34,89%</t>
   </si>
   <si>
     <t>9,53%</t>
   </si>
   <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
   </si>
 </sst>
 </file>
@@ -814,7 +820,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E1508A8-BD30-4757-B943-96EEC113C9F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{386B674B-1478-47F5-9D57-3A8FA3F1AF77}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2011,7 +2017,7 @@
         <v>67</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>14</v>
@@ -2023,10 +2029,10 @@
         <v>7585</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>14</v>
@@ -2050,7 +2056,7 @@
         <v>21</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -2059,13 +2065,13 @@
         <v>1160</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -2074,13 +2080,13 @@
         <v>1160</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2148,10 +2154,10 @@
         <v>20931</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>14</v>
@@ -2163,13 +2169,13 @@
         <v>19170</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M28" s="7">
         <v>37</v>
@@ -2178,13 +2184,13 @@
         <v>40101</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2199,13 +2205,13 @@
         <v>2037</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H29" s="7">
         <v>5</v>
@@ -2214,13 +2220,13 @@
         <v>5608</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M29" s="7">
         <v>7</v>
@@ -2229,13 +2235,13 @@
         <v>7645</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2291,7 +2297,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2315,7 +2321,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{881B6B17-EAB5-4949-A3FF-8594F3B7F9A3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A74E4988-3AC9-4E59-BEA4-E70B8A9F98B4}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2332,7 +2338,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2597,7 +2603,7 @@
         <v>14</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>16</v>
@@ -2627,7 +2633,7 @@
         <v>14</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>16</v>
@@ -2651,7 +2657,7 @@
         <v>21</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2681,7 +2687,7 @@
         <v>21</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2901,7 +2907,7 @@
         <v>14</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>16</v>
@@ -2931,7 +2937,7 @@
         <v>14</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>16</v>
@@ -2955,7 +2961,7 @@
         <v>21</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -2985,7 +2991,7 @@
         <v>21</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3202,7 +3208,7 @@
         <v>974</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>18</v>
@@ -3230,7 +3236,7 @@
         <v>974</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>18</v>
@@ -3251,7 +3257,7 @@
         <v>807</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>18</v>
@@ -3279,7 +3285,7 @@
         <v>807</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>18</v>
@@ -3366,10 +3372,10 @@
         <v>7063</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>14</v>
@@ -3381,10 +3387,10 @@
         <v>12147</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>14</v>
@@ -3408,7 +3414,7 @@
         <v>21</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -3417,13 +3423,13 @@
         <v>1194</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M23" s="7">
         <v>1</v>
@@ -3432,13 +3438,13 @@
         <v>1194</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3539,7 +3545,7 @@
         <v>14</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>16</v>
@@ -3593,7 +3599,7 @@
         <v>21</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3661,10 +3667,10 @@
         <v>24046</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>14</v>
@@ -3676,10 +3682,10 @@
         <v>16971</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>14</v>
@@ -3691,13 +3697,13 @@
         <v>41018</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3712,13 +3718,13 @@
         <v>2108</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -3727,13 +3733,13 @@
         <v>2212</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M29" s="7">
         <v>4</v>
@@ -3742,13 +3748,13 @@
         <v>4320</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3804,7 +3810,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
